--- a/OLS post Lasso results/LassoLars_aic.xlsx
+++ b/OLS post Lasso results/LassoLars_aic.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhan\Documents\GitHub\Summer-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhan\Documents\GitHub\Summer-Project\OLS post Lasso results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E15475-FAEE-4DB9-A4FE-FD6D98CAA597}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479230E1-7DCD-4E5F-8889-28052CBBE4A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AE$31</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -464,11 +468,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="31" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -3414,6 +3422,10 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="30" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>